--- a/2_raw_data/running_info.xlsx
+++ b/2_raw_data/running_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishayu/Documents/GitHub/EigenBot_stability_metric/2_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5795B-A830-3949-AD4E-3B94566B971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C7774-F4AB-2447-B330-241E3184850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="15300" windowHeight="9000" xr2:uid="{7314497C-2E6B-7A42-B280-549EC75EB95D}"/>
+    <workbookView xWindow="14620" yWindow="680" windowWidth="15300" windowHeight="9000" xr2:uid="{7314497C-2E6B-7A42-B280-549EC75EB95D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
   <si>
     <t>control_type</t>
   </si>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E31A8A2-2E5B-C840-A1BD-3D7078D7D3D0}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -534,13 +534,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1380</v>
+        <v>1150</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -557,13 +557,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9999</v>
+        <v>1530</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -580,13 +580,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9999</v>
+        <v>1450</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -594,22 +594,22 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1150</v>
+        <v>9999</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -617,30 +617,30 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>9999</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -652,21 +652,21 @@
         <v>9999</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>130</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -675,41 +675,41 @@
         <v>9999</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G10">
-        <v>200</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1530</v>
+        <v>9999</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1450</v>
+        <v>9999</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <v>200</v>
@@ -729,45 +729,45 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>780</v>
+        <v>9999</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14">
         <v>9999</v>
       </c>
       <c r="F14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>200</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -790,10 +790,10 @@
         <v>9999</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -801,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -813,10 +813,10 @@
         <v>9999</v>
       </c>
       <c r="F16">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>300</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -839,7 +839,7 @@
         <v>100</v>
       </c>
       <c r="G17">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -847,22 +847,22 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E18">
         <v>9999</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -870,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -882,10 +882,10 @@
         <v>9999</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -893,22 +893,22 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>180</v>
+        <v>1040</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9999</v>
+        <v>1500</v>
       </c>
       <c r="F20">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="G20">
-        <v>300</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>220</v>
+        <v>1120</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9999</v>
+        <v>1500</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G21">
-        <v>250</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -939,22 +939,22 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>260</v>
+        <v>1200</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E22">
         <v>9999</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -962,22 +962,22 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>260</v>
+        <v>1440</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E23">
         <v>9999</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>100</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -985,22 +985,22 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>9999</v>
       </c>
       <c r="F24">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>300</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1008,22 +1008,22 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E25">
         <v>9999</v>
       </c>
       <c r="F25">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1031,10 +1031,10 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1043,446 +1043,9 @@
         <v>9999</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>300</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>9999</v>
-      </c>
-      <c r="F27">
-        <v>140</v>
-      </c>
-      <c r="G27">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28">
-        <v>350</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>9999</v>
-      </c>
-      <c r="F28">
-        <v>60</v>
-      </c>
-      <c r="G28">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>370</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>9999</v>
-      </c>
-      <c r="F29">
-        <v>20</v>
-      </c>
-      <c r="G29">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <v>370</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>400</v>
-      </c>
-      <c r="E30">
-        <v>9999</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31">
-        <v>400</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>9999</v>
-      </c>
-      <c r="F31">
-        <v>75</v>
-      </c>
-      <c r="G31">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>400</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>980</v>
-      </c>
-      <c r="F32">
-        <v>100</v>
-      </c>
-      <c r="G32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>500</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>9999</v>
-      </c>
-      <c r="F33">
-        <v>40</v>
-      </c>
-      <c r="G33">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <v>600</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>9999</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35">
-        <v>700</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>900</v>
-      </c>
-      <c r="E35">
-        <v>9999</v>
-      </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36">
-        <v>800</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>9999</v>
-      </c>
-      <c r="F36">
-        <v>50</v>
-      </c>
-      <c r="G36">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37">
-        <v>1000</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>9999</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38">
-        <v>1040</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>1500</v>
-      </c>
-      <c r="F38">
-        <v>20</v>
-      </c>
-      <c r="G38">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39">
-        <v>1120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>1500</v>
-      </c>
-      <c r="F39">
-        <v>40</v>
-      </c>
-      <c r="G39">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40">
-        <v>1160</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>1550</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41">
-        <v>1200</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
-        <v>650</v>
-      </c>
-      <c r="E41">
-        <v>9999</v>
-      </c>
-      <c r="F41">
-        <v>20</v>
-      </c>
-      <c r="G41">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42">
-        <v>1440</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>200</v>
-      </c>
-      <c r="E42">
-        <v>9999</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43">
-        <v>1600</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>200</v>
-      </c>
-      <c r="E43">
-        <v>9999</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>1800</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44">
-        <v>200</v>
-      </c>
-      <c r="E44">
-        <v>9999</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45">
-        <v>2000</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>9999</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="G45">
         <v>150</v>
       </c>
     </row>

--- a/2_raw_data/running_info.xlsx
+++ b/2_raw_data/running_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishayu/Documents/GitHub/EigenBot_stability_metric/2_raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/333dd9fcf19971af/Documents/GitHub/EigenBot_stability_metric/EigenBot_stability_metric/2_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C7774-F4AB-2447-B330-241E3184850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AD6C7774-F4AB-2447-B330-241E3184850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E80257D3-A766-4617-A27D-C782C952C764}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="680" windowWidth="15300" windowHeight="9000" xr2:uid="{7314497C-2E6B-7A42-B280-549EC75EB95D}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" xr2:uid="{7314497C-2E6B-7A42-B280-549EC75EB95D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>control_type</t>
   </si>
@@ -59,26 +58,17 @@
     <t>t_f</t>
   </si>
   <si>
-    <t>"centralised"</t>
+    <t>centralised</t>
   </si>
   <si>
-    <t>"1"</t>
-  </si>
-  <si>
-    <t>"2"</t>
-  </si>
-  <si>
-    <t>"3"</t>
-  </si>
-  <si>
-    <t>"distributed"</t>
+    <t>distributed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,9 +439,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,15 +464,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <v>140</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -497,15 +487,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>180</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -520,15 +510,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>220</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -543,15 +533,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>260</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -566,15 +556,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>320</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -589,15 +579,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>330</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -612,15 +602,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>350</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -635,15 +625,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -658,15 +648,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>180</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -681,15 +671,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>220</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -704,15 +694,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>260</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -727,15 +717,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>300</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
+      <c r="C13">
+        <v>3</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -750,15 +740,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>370</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
+      <c r="C14">
+        <v>2</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -773,15 +763,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>400</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -796,15 +786,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>500</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -819,15 +809,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>600</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -842,15 +832,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>700</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18">
         <v>900</v>
@@ -865,15 +855,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>1000</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -888,15 +878,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>1040</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -911,15 +901,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>1120</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -934,15 +924,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>1200</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22">
         <v>650</v>
@@ -957,15 +947,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>1440</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
+      <c r="C23">
+        <v>1</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -980,15 +970,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>1600</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -1003,15 +993,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>1800</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
+      <c r="C25">
+        <v>1</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -1026,15 +1016,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>2000</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
